--- a/outputs/mod_5.xlsx
+++ b/outputs/mod_5.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-5.227118081196162</v>
+        <v>-10.76378786205053</v>
       </c>
       <c r="E2" t="n">
-        <v>4465.15433451838</v>
+        <v>6.581634879503109</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.001170646676372939</v>
+        <v>-1.635427680069539</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.980066384856082</v>
+        <v>5.01714567230757</v>
       </c>
       <c r="E3" t="n">
-        <v>4907.279588415352</v>
+        <v>3.109482102649712</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001422390197887639</v>
+        <v>1.613498809989053</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -532,15 +532,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-2.175856935011273</v>
+        <v>-28.43803861076555</v>
       </c>
       <c r="E4" t="n">
-        <v>2891.726428101434</v>
+        <v>5.916521488702712</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0007524421791309748</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>-4.80654699979819</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,15 +561,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.385354663566059</v>
+        <v>6.059850487756085</v>
       </c>
       <c r="E5" t="n">
-        <v>1841.092838793556</v>
+        <v>0.6592173081985462</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002925085878393298</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>9.192492994936581</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -582,15 +590,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-16.203607867105</v>
+        <v>-39.04420160933709</v>
       </c>
       <c r="E6" t="n">
-        <v>340.7682689139832</v>
+        <v>2.871824557059081</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.04755022502167043</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>-13.59560823914699</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -607,15 +619,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-6.74618182486556</v>
+        <v>-30.58922312164099</v>
       </c>
       <c r="E7" t="n">
-        <v>793.2381510667885</v>
+        <v>3.251277037947411</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.008504610898748299</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>-9.408371776571988</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -632,15 +648,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-14.90297941407635</v>
+        <v>-30.31869471658379</v>
       </c>
       <c r="E8" t="n">
-        <v>9083.272903466825</v>
+        <v>2.916660475994417</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001640705896702533</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>-10.39500310924837</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -657,15 +677,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-16.47900115137888</v>
+        <v>-13.4482525737365</v>
       </c>
       <c r="E9" t="n">
-        <v>2959.233917494178</v>
+        <v>3.379154056402276</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005568671355772031</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>-3.979769004096431</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -682,15 +706,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.5420676032593827</v>
+        <v>31.37134700773804</v>
       </c>
       <c r="E10" t="n">
-        <v>2604.123424646357</v>
+        <v>0.09938804638099316</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0002081574160921333</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>315.6450715157376</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -707,13 +735,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.332542127389106</v>
+        <v>2.440900917813102</v>
       </c>
       <c r="E11" t="n">
-        <v>3964.428693661263</v>
+        <v>4.876836295401682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000588367784523055</v>
+        <v>0.5005090944132371</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -732,15 +760,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-77.63708578080536</v>
+        <v>-62.00694000503113</v>
       </c>
       <c r="E12" t="n">
-        <v>5974.079665785223</v>
+        <v>1.497467726584415</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01299565625571564</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>-41.40786402553276</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -757,15 +789,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-4.131734924229461</v>
+        <v>38.34072384609134</v>
       </c>
       <c r="E13" t="n">
-        <v>15249.64236131861</v>
+        <v>14.67036133170911</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.000270939791657658</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>2.613481902672714</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -778,19 +814,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mint_purchase_InStore</t>
+          <t>discount_inc</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-4.700413106421087</v>
+        <v>-428.945344350301</v>
       </c>
       <c r="E14" t="n">
-        <v>883.9977352538328</v>
+        <v>5.822492197241075</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.005317223018757397</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>-73.67040260758993</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -803,19 +843,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fluoride_purchase_InStore</t>
+          <t>mint_purchase_InStore</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.982234592594458</v>
+        <v>-6.445649251053456</v>
       </c>
       <c r="E15" t="n">
-        <v>8171.030346026183</v>
+        <v>1.900948298291963</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0003649765655373938</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>-3.390754633803028</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -828,17 +872,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>kids_purchase_InStore</t>
+          <t>fluoride_purchase_InStore</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.34465410427361</v>
+        <v>2.371029038006057</v>
       </c>
       <c r="E16" t="n">
-        <v>5402.644421907316</v>
+        <v>2.874740682651511</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0004339826798088384</v>
+        <v>0.8247801453239754</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -853,17 +897,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sizeNorm_purchase_InStore</t>
+          <t>kids_purchase_InStore</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.06096556709044711</v>
+        <v>-5.307153408146789</v>
       </c>
       <c r="E17" t="n">
-        <v>2602.368815329904</v>
+        <v>5.849600258814121</v>
       </c>
       <c r="F17" t="n">
-        <v>2.342695114209569e-05</v>
+        <v>-0.9072677060539345</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -878,17 +922,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>discount_purchase_InStore</t>
+          <t>sizeNorm_purchase_InStore</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8961127472472082</v>
+        <v>-0.4994058738941946</v>
       </c>
       <c r="E18" t="n">
-        <v>1578.802811835882</v>
+        <v>0.5506942203216834</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0005675900375457146</v>
+        <v>-0.9068660165027169</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -903,17 +947,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>white_ed_HighSchool</t>
+          <t>discount_purchase_InStore</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3.470015056904654</v>
+        <v>0.8490131663163544</v>
       </c>
       <c r="E19" t="n">
-        <v>8787.049615711037</v>
+        <v>1.03432705720669</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003949010428597499</v>
+        <v>0.8208362726285094</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -928,17 +972,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>fluoride_ed_HighSchool</t>
+          <t>brand_Aquafresh_ed_HighSchool</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-7.562914371725251</v>
+        <v>-9.271016385091833</v>
       </c>
       <c r="E20" t="n">
-        <v>12595.24957665814</v>
+        <v>15.37369715160851</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0006004576825330282</v>
+        <v>-0.6030440364256708</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -953,19 +997,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sizeNorm_ed_HighSchool</t>
+          <t>brand_Sensodyne_ed_HighSchool</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-11.80900617631363</v>
+        <v>20.9007808388068</v>
       </c>
       <c r="E21" t="n">
-        <v>3401.516399809986</v>
+        <v>7.438250186260199</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.003471688737697487</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>2.809905598149192</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -978,19 +1026,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>familypack_ed_HighSchool</t>
+          <t>white_ed_HighSchool</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.621814023758804</v>
+        <v>29.89805412581739</v>
       </c>
       <c r="E22" t="n">
-        <v>12384.54835369848</v>
+        <v>15.77633873328143</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0002117004148137412</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>1.895119940772131</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -998,24 +1050,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>betaU</t>
+          <t>betaO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>brand_Aquafresh</t>
+          <t>fluoride_ed_HighSchool</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9477195938020213</v>
+        <v>18.93258825220997</v>
       </c>
       <c r="E23" t="n">
-        <v>22403.22408405003</v>
+        <v>11.13022968357263</v>
       </c>
       <c r="F23" t="n">
-        <v>4.230282169416632e-05</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>1.701006069996293</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1023,24 +1079,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>betaU</t>
+          <t>betaO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brand_Colgate</t>
+          <t>sizeNorm_ed_HighSchool</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-3.936017307073551</v>
+        <v>-18.27633777161358</v>
       </c>
       <c r="E24" t="n">
-        <v>4679.401336094817</v>
+        <v>7.449761359789495</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.000841136937050658</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>-2.453278284893948</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1053,17 +1113,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brand_Sensodyne</t>
+          <t>brand_Aquafresh</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3.218380069542452</v>
+        <v>-10.22073874677891</v>
       </c>
       <c r="E25" t="n">
-        <v>21568.73559084895</v>
+        <v>10.62501387961657</v>
       </c>
       <c r="F25" t="n">
-        <v>0.000149215055096133</v>
+        <v>-0.9619506254374653</v>
       </c>
       <c r="G25" t="inlineStr"/>
     </row>
@@ -1078,17 +1138,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>mint</t>
+          <t>brand_Colgate</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-5.177185453048284</v>
+        <v>0.9667129526771167</v>
       </c>
       <c r="E26" t="n">
-        <v>1310.523360839378</v>
+        <v>6.460264077621229</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.003950471702948007</v>
+        <v>0.1496398507958634</v>
       </c>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -1103,17 +1163,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>brand_Sensodyne</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8.625586567061699</v>
+        <v>0.6567157542651679</v>
       </c>
       <c r="E27" t="n">
-        <v>4147.145858741122</v>
+        <v>16.96154234333289</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002079885024752909</v>
+        <v>0.03871792676467919</v>
       </c>
       <c r="G27" t="inlineStr"/>
     </row>
@@ -1128,19 +1188,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>fluoride</t>
+          <t>mint</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2.771264979325812</v>
+        <v>-4.230593040393885</v>
       </c>
       <c r="E28" t="n">
-        <v>19843.46645404322</v>
+        <v>2.568796029817241</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0001396562937097691</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+        <v>-1.646916684426234</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1153,17 +1217,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>kids</t>
+          <t>white</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-6.102391460516448</v>
+        <v>-2.089375887049078</v>
       </c>
       <c r="E29" t="n">
-        <v>31707.47518860987</v>
+        <v>12.47287639022725</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.000192459078631041</v>
+        <v>-0.1675135567515242</v>
       </c>
       <c r="G29" t="inlineStr"/>
     </row>
@@ -1178,17 +1242,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sizeNorm</t>
+          <t>fluoride</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-8.461064132484454</v>
+        <v>-0.6437173239840009</v>
       </c>
       <c r="E30" t="n">
-        <v>8094.292353470004</v>
+        <v>6.530223178635894</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.001045312395821386</v>
+        <v>-0.09857508792195183</v>
       </c>
       <c r="G30" t="inlineStr"/>
     </row>
@@ -1203,17 +1267,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>discount</t>
+          <t>kids</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.313926349685541</v>
+        <v>-16.61123657020783</v>
       </c>
       <c r="E31" t="n">
-        <v>3872.082860828529</v>
+        <v>16.28886565148381</v>
       </c>
       <c r="F31" t="n">
-        <v>0.000597592157206682</v>
+        <v>-1.019790875903912</v>
       </c>
       <c r="G31" t="inlineStr"/>
     </row>
@@ -1228,17 +1292,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>familypack</t>
+          <t>sizeNorm</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-0.7280777522653107</v>
+        <v>3.162562027331431</v>
       </c>
       <c r="E32" t="n">
-        <v>4582.808812658807</v>
+        <v>7.470775104067852</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0001588715091614092</v>
+        <v>0.4233244855154868</v>
       </c>
       <c r="G32" t="inlineStr"/>
     </row>
@@ -1253,19 +1317,69 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>discount</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>-5.328256599703498</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.634868602985954</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.465873235507459</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>betaU</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>familypack</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>-1.792585140229458</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.587032054007686</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-1.129520437663937</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>betaU</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>priceperoz</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>-8.289504356714493</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2946.192931014215</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.002813632559311336</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>-0.1393773225114627</v>
+      </c>
+      <c r="E35" t="n">
+        <v>77.59827370379205</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.001796139473971979</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1278,7 +1392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,13 +1447,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-5.369455215665997</v>
+        <v>-3.924386839755774</v>
       </c>
       <c r="E2" t="n">
-        <v>1067452.135352134</v>
+        <v>187.9014481794054</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.030160170970763e-06</v>
+        <v>-0.02088534642909633</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1358,13 +1472,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.590793242927003</v>
+        <v>4.350090420614031</v>
       </c>
       <c r="E3" t="n">
-        <v>408119.3738683996</v>
+        <v>282.8341246356767</v>
       </c>
       <c r="F3" t="n">
-        <v>1.614918003145874e-05</v>
+        <v>0.01538035916358202</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1383,10 +1497,14 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-14.83237184003679</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+        <v>-22.82334809428884</v>
+      </c>
+      <c r="E4" t="n">
+        <v>137.1466818825708</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.1664156054014554</v>
+      </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1404,13 +1522,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.713306057672177</v>
+        <v>-0.3286846110672843</v>
       </c>
       <c r="E5" t="n">
-        <v>417620.3197466945</v>
+        <v>303.3608065984051</v>
       </c>
       <c r="F5" t="n">
-        <v>1.607514227694692e-05</v>
+        <v>-0.001083477509019164</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -1429,13 +1547,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-18.84786941349819</v>
+        <v>-11.47772830654285</v>
       </c>
       <c r="E6" t="n">
-        <v>711966.734003377</v>
+        <v>781.8053252285973</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.647296357165023e-05</v>
+        <v>-0.0146810566980812</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -1454,13 +1572,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-10.45621354950306</v>
+        <v>-4.885208372737633</v>
       </c>
       <c r="E7" t="n">
-        <v>359546.9682066112</v>
+        <v>609.2001940465663</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.908163459605218e-05</v>
+        <v>-0.008019052555265955</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -1479,13 +1597,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-9.54859597817121</v>
+        <v>-9.964037504853486</v>
       </c>
       <c r="E8" t="n">
-        <v>1103718.793046737</v>
+        <v>472.7637157358974</v>
       </c>
       <c r="F8" t="n">
-        <v>-8.651294186821804e-06</v>
+        <v>-0.02107614686407057</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1504,13 +1622,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-14.66004751494243</v>
+        <v>-11.68415064503559</v>
       </c>
       <c r="E9" t="n">
-        <v>749624.9030226335</v>
+        <v>284.5214106869116</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.955651080404381e-05</v>
+        <v>-0.04106598029591828</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1529,13 +1647,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.34302425274644</v>
+        <v>1.503510129859463</v>
       </c>
       <c r="E10" t="n">
-        <v>149628.4159531673</v>
+        <v>164.4528786319869</v>
       </c>
       <c r="F10" t="n">
-        <v>2.902539751610936e-05</v>
+        <v>0.009142498096515673</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1554,13 +1672,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.254293526972974</v>
+        <v>2.104612890597937</v>
       </c>
       <c r="E11" t="n">
-        <v>231604.1067275651</v>
+        <v>629.502027816697</v>
       </c>
       <c r="F11" t="n">
-        <v>1.836881731970876e-05</v>
+        <v>0.003343298031775003</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1579,13 +1697,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-27.03516359774412</v>
+        <v>-38.02528370326301</v>
       </c>
       <c r="E12" t="n">
-        <v>3084802.848605242</v>
+        <v>1070.897944072356</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.763984255903989e-06</v>
+        <v>-0.03550785013057586</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1604,13 +1722,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-2.199890798519504</v>
+        <v>-2.729685579424176</v>
       </c>
       <c r="E13" t="n">
-        <v>226833.9868818191</v>
+        <v>87.56015832343024</v>
       </c>
       <c r="F13" t="n">
-        <v>-9.698241558773336e-06</v>
+        <v>-0.03117497308925878</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1625,17 +1743,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mint_purchase_InStore</t>
+          <t>discount_inc</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-4.097574001622781</v>
+        <v>0.05418174171675483</v>
       </c>
       <c r="E14" t="n">
-        <v>358598.2469004717</v>
+        <v>493.5253538182582</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.142664259248332e-05</v>
+        <v>0.0001097851230895574</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1650,17 +1768,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fluoride_purchase_InStore</t>
+          <t>mint_purchase_InStore</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2.632304957186324</v>
+        <v>-1.29327219310859</v>
       </c>
       <c r="E15" t="n">
-        <v>418316.3197946618</v>
+        <v>271.4774166734596</v>
       </c>
       <c r="F15" t="n">
-        <v>6.292618367073124e-06</v>
+        <v>-0.004763829746708444</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1675,17 +1793,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>kids_purchase_InStore</t>
+          <t>fluoride_purchase_InStore</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.15864842896959</v>
+        <v>0.5911101693675408</v>
       </c>
       <c r="E16" t="n">
-        <v>1171027.246172961</v>
+        <v>78.75929508219852</v>
       </c>
       <c r="F16" t="n">
-        <v>9.894290954853306e-07</v>
+        <v>0.007505275012309573</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -1700,17 +1818,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sizeNorm_purchase_InStore</t>
+          <t>kids_purchase_InStore</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.189238285377218</v>
+        <v>1.599936507853942</v>
       </c>
       <c r="E17" t="n">
-        <v>473468.3689126888</v>
+        <v>1416.340013629462</v>
       </c>
       <c r="F17" t="n">
-        <v>3.996851697016215e-07</v>
+        <v>0.001129627414644597</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1725,17 +1843,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>discount_purchase_InStore</t>
+          <t>sizeNorm_purchase_InStore</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.4229164478145339</v>
+        <v>1.785294434746206</v>
       </c>
       <c r="E18" t="n">
-        <v>157012.9470723275</v>
+        <v>203.3869941297036</v>
       </c>
       <c r="F18" t="n">
-        <v>2.693513214675977e-06</v>
+        <v>0.008777820048845853</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1750,17 +1868,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>white_ed_HighSchool</t>
+          <t>discount_purchase_InStore</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.834659605311925</v>
+        <v>0.1484403802961445</v>
       </c>
       <c r="E19" t="n">
-        <v>506698.7284085111</v>
+        <v>141.0978484003689</v>
       </c>
       <c r="F19" t="n">
-        <v>5.594368894935461e-06</v>
+        <v>0.001052038581587304</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -1775,17 +1893,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>fluoride_ed_HighSchool</t>
+          <t>brand_Aquafresh_ed_HighSchool</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-9.025955654341514</v>
+        <v>-12.13546223608154</v>
       </c>
       <c r="E20" t="n">
-        <v>641556.9748390074</v>
+        <v>492.6934235256708</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.406882943889199e-05</v>
+        <v>-0.02463085898171978</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1800,17 +1918,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sizeNorm_ed_HighSchool</t>
+          <t>brand_Sensodyne_ed_HighSchool</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-8.397805093485735</v>
+        <v>1.224484271870164</v>
       </c>
       <c r="E21" t="n">
-        <v>439740.0188035874</v>
+        <v>290.6911937650802</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.90972045626729e-05</v>
+        <v>0.004212319802366359</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1825,17 +1943,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>familypack_ed_HighSchool</t>
+          <t>white_ed_HighSchool</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3.241013033587554</v>
+        <v>-2.06836029533708</v>
       </c>
       <c r="E22" t="n">
-        <v>1240446.078701074</v>
+        <v>393.7557723489684</v>
       </c>
       <c r="F22" t="n">
-        <v>2.612780264484662e-06</v>
+        <v>-0.005252901520651191</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1845,22 +1963,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>betaU</t>
+          <t>betaO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>brand_Aquafresh</t>
+          <t>fluoride_ed_HighSchool</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-5.421761831019639</v>
+        <v>-10.4031492609646</v>
       </c>
       <c r="E23" t="n">
-        <v>1635050.460750279</v>
+        <v>654.4647975978326</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.315959942014109e-06</v>
+        <v>-0.01589565901657146</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1870,22 +1988,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>betaU</t>
+          <t>betaO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brand_Colgate</t>
+          <t>sizeNorm_ed_HighSchool</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-2.830557156164219</v>
+        <v>-12.06855210380876</v>
       </c>
       <c r="E24" t="n">
-        <v>384167.9753255242</v>
+        <v>663.67230143087</v>
       </c>
       <c r="F24" t="n">
-        <v>-7.368019559063324e-06</v>
+        <v>-0.01818450472889873</v>
       </c>
       <c r="G24" t="inlineStr"/>
     </row>
@@ -1900,14 +2018,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brand_Sensodyne</t>
+          <t>brand_Aquafresh</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9.714365369699877</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+        <v>-0.9793834896012517</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1009.790852437605</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0009698874645547139</v>
+      </c>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1921,17 +2043,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>mint</t>
+          <t>brand_Colgate</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-4.803823019683776</v>
+        <v>-0.08890124591578039</v>
       </c>
       <c r="E26" t="n">
-        <v>662789.4339308906</v>
+        <v>3094.042504870918</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.247887147495886e-06</v>
+        <v>-2.87330396320749e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -1946,17 +2068,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>brand_Sensodyne</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7.726772199347807</v>
+        <v>21.30245969678051</v>
       </c>
       <c r="E27" t="n">
-        <v>405044.3485869322</v>
+        <v>429.4488485223296</v>
       </c>
       <c r="F27" t="n">
-        <v>1.907636096221068e-05</v>
+        <v>0.04960418399089704</v>
       </c>
       <c r="G27" t="inlineStr"/>
     </row>
@@ -1971,17 +2093,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>fluoride</t>
+          <t>mint</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.7494767049591143</v>
+        <v>0.1506201747216374</v>
       </c>
       <c r="E28" t="n">
-        <v>303017.2438662659</v>
+        <v>1286.537613751347</v>
       </c>
       <c r="F28" t="n">
-        <v>2.473379717260875e-06</v>
+        <v>0.0001170740545101142</v>
       </c>
       <c r="G28" t="inlineStr"/>
     </row>
@@ -1996,17 +2118,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>kids</t>
+          <t>white</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.4879238895468598</v>
+        <v>-0.6734980483540735</v>
       </c>
       <c r="E29" t="n">
-        <v>1692089.215820064</v>
+        <v>2261.522139227375</v>
       </c>
       <c r="F29" t="n">
-        <v>2.883558886759936e-07</v>
+        <v>-0.0002978074088561286</v>
       </c>
       <c r="G29" t="inlineStr"/>
     </row>
@@ -2021,17 +2143,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sizeNorm</t>
+          <t>fluoride</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-4.662710247079299</v>
+        <v>-1.119527956050177</v>
       </c>
       <c r="E30" t="n">
-        <v>1134707.791973803</v>
+        <v>836.505870960012</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.109172669880589e-06</v>
+        <v>-0.001338338432419316</v>
       </c>
       <c r="G30" t="inlineStr"/>
     </row>
@@ -2046,14 +2168,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>discount</t>
+          <t>kids</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-2.043023285995781</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+        <v>3.56160370870567</v>
+      </c>
+      <c r="E31" t="n">
+        <v>543.0587219790062</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.006558413601620334</v>
+      </c>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2067,17 +2193,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>familypack</t>
+          <t>sizeNorm</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1.705284850084843</v>
+        <v>-2.059804996860496</v>
       </c>
       <c r="E32" t="n">
-        <v>1238965.133783472</v>
+        <v>644.4587391901163</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.376378401285074e-06</v>
+        <v>-0.003196178237025738</v>
       </c>
       <c r="G32" t="inlineStr"/>
     </row>
@@ -2092,15 +2218,69 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>discount</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>-2.159921287403906</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1128.457477807043</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.001914047564823913</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>betaU</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>familypack</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9751584993320808</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2029.780010768745</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0004804257082829167</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>betaU</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>priceperoz</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>-7.117963852000543</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>1.266702576144414</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1097.302283554536</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001154378875473705</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2186,34 +2366,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.061802391196469</v>
+        <v>-6.59980495276237</v>
       </c>
       <c r="D2" t="n">
-        <v>3.678368463982768</v>
+        <v>3.670891659158094</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03941344654326599</v>
+        <v>0.005626441493128779</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9682557677973096</v>
+        <v>0.6410543103624358</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08378417943973279</v>
+        <v>0.06253068849402094</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9420304824742171</v>
+        <v>1.312937836402147</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01237942678666622</v>
+        <v>0.001339757087426909</v>
       </c>
       <c r="J2" t="n">
-        <v>1.002295470057842</v>
+        <v>0.7703923997855651</v>
       </c>
       <c r="K2" t="n">
-        <v>0.009766539266409826</v>
+        <v>0.01372147732349892</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2858763601569977</v>
+        <v>0.1249293994091771</v>
       </c>
     </row>
     <row r="3">
@@ -2224,34 +2404,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.399594356878481</v>
+        <v>1.475733972147732</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.688830438983739</v>
+        <v>-3.378313112870599</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01106041133144977</v>
+        <v>9.079772981783788e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4015937254411476</v>
+        <v>0.4458543468830038</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09928350749457755</v>
+        <v>0.03348288652334214</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6875723410319566</v>
+        <v>0.7198211206118839</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003698100098987001</v>
+        <v>0.001202655848881188</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9197066969027489</v>
+        <v>0.6432105750036733</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006772749488277859</v>
+        <v>0.0016075299646175</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1105293250751527</v>
+        <v>0.0613464828952502</v>
       </c>
     </row>
     <row r="4">
@@ -2262,34 +2442,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.125270230881964</v>
+        <v>-10.00433861482388</v>
       </c>
       <c r="D4" t="n">
-        <v>5.099037357857638</v>
+        <v>5.418134583233127</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.044995621004097</v>
+        <v>-0.1687425273717949</v>
       </c>
       <c r="F4" t="n">
-        <v>1.551101032529493</v>
+        <v>1.280042393575211</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3563637889142068</v>
+        <v>0.1730401144439956</v>
       </c>
       <c r="H4" t="n">
-        <v>1.875022585957736</v>
+        <v>1.846687202904292</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0347756855862106</v>
+        <v>0.00159614668810239</v>
       </c>
       <c r="J4" t="n">
-        <v>2.166768888552971</v>
+        <v>1.117689319436647</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02225848241120959</v>
+        <v>0.01140377214311527</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6868390760863898</v>
+        <v>0.2270789085528295</v>
       </c>
     </row>
     <row r="5">
@@ -2300,34 +2480,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.400978687474459</v>
+        <v>1.687784795591408</v>
       </c>
       <c r="D5" t="n">
-        <v>3.665726834227523</v>
+        <v>4.37332556680147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06746076828277636</v>
+        <v>0.003141595339751755</v>
       </c>
       <c r="F5" t="n">
-        <v>-9.73272131167615</v>
+        <v>-8.559732663522903</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1291735187403258</v>
+        <v>0.08331340781614277</v>
       </c>
       <c r="H5" t="n">
-        <v>1.42520444243579</v>
+        <v>1.348124497491324</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02859242048818269</v>
+        <v>0.0004999599452793052</v>
       </c>
       <c r="J5" t="n">
-        <v>1.401211537161513</v>
+        <v>0.9316474216923664</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003156690323873937</v>
+        <v>0.001992260129333837</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6415922093068951</v>
+        <v>0.1297070078905564</v>
       </c>
     </row>
     <row r="6">
@@ -2338,34 +2518,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.338614963845298</v>
+        <v>-3.760925681385532</v>
       </c>
       <c r="D6" t="n">
-        <v>5.777268813773081</v>
+        <v>4.259963854220588</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04581782111429157</v>
+        <v>0.0004909168589446307</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8917478268643372</v>
+        <v>0.9890901708264805</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.170319385412775</v>
+        <v>-4.333108527134902</v>
       </c>
       <c r="H6" t="n">
-        <v>1.504784907952107</v>
+        <v>1.31321279367433</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04421189380943531</v>
+        <v>0.05621713723503746</v>
       </c>
       <c r="J6" t="n">
-        <v>2.205082087161585</v>
+        <v>1.213535716018656</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009764581535315691</v>
+        <v>0.0333983740920392</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6359439469842241</v>
+        <v>0.1816624952001633</v>
       </c>
     </row>
     <row r="7">
@@ -2376,34 +2556,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2.009152591526784</v>
+        <v>2.585859105702418</v>
       </c>
       <c r="D7" t="n">
-        <v>4.257790856274688</v>
+        <v>4.478004925649604</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02372842773529831</v>
+        <v>0.000422323183884529</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9671090912360698</v>
+        <v>0.8557792764614113</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1360118868161382</v>
+        <v>0.05704458186757742</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.621947267396493</v>
+        <v>-9.130247438834875</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002271834962417993</v>
+        <v>0.0001175139760891275</v>
       </c>
       <c r="J7" t="n">
-        <v>1.887293258699363</v>
+        <v>1.015831155415356</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001609361500856339</v>
+        <v>0.001181759787826846</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2930509810281831</v>
+        <v>0.1390650687860246</v>
       </c>
     </row>
     <row r="8">
@@ -2414,34 +2594,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.460588676432037</v>
+        <v>-10.51925271317685</v>
       </c>
       <c r="D8" t="n">
-        <v>5.221027292528355</v>
+        <v>5.751446660737926</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1069208785152796</v>
+        <v>0.0001517547389187572</v>
       </c>
       <c r="F8" t="n">
-        <v>1.388741375828385</v>
+        <v>1.306567670187832</v>
       </c>
       <c r="G8" t="n">
-        <v>0.475166311051702</v>
+        <v>0.2888895614438062</v>
       </c>
       <c r="H8" t="n">
-        <v>1.869762128408287</v>
+        <v>1.918988048356011</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.441358171637825</v>
+        <v>-0.3194020662767945</v>
       </c>
       <c r="J8" t="n">
-        <v>2.418661861648073</v>
+        <v>1.172848656085518</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04849063173742061</v>
+        <v>0.01188792083224713</v>
       </c>
       <c r="L8" t="n">
-        <v>1.328357785373283</v>
+        <v>0.2862744512475596</v>
       </c>
     </row>
     <row r="9">
@@ -2452,34 +2632,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1.678711925289505</v>
+        <v>1.037163343319403</v>
       </c>
       <c r="D9" t="n">
-        <v>4.310085105706499</v>
+        <v>3.38515053168418</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02426555228705394</v>
+        <v>9.197301366835514e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7190823434340516</v>
+        <v>0.5221699677674324</v>
       </c>
       <c r="G9" t="n">
-        <v>0.174251167280356</v>
+        <v>0.07824867725759925</v>
       </c>
       <c r="H9" t="n">
-        <v>1.437319326083047</v>
+        <v>0.8850035136094452</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01726526515677171</v>
+        <v>0.0005136305268843322</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.720924077989936</v>
+        <v>-6.252416159567916</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001275166373579538</v>
+        <v>0.001050831998267542</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2989334201221428</v>
+        <v>0.3430253944613203</v>
       </c>
     </row>
     <row r="10">
@@ -2490,34 +2670,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.259982082889623</v>
+        <v>-9.211134961569394</v>
       </c>
       <c r="D10" t="n">
-        <v>4.746947390352165</v>
+        <v>5.255726561340242</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09617994028281103</v>
+        <v>2.576549211963002e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>1.047782616070341</v>
+        <v>1.192814585683284</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3815228340693202</v>
+        <v>0.2124050935490294</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7997140731501</v>
+        <v>1.750971199934045</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05379508333199907</v>
+        <v>0.001378262074922491</v>
       </c>
       <c r="J10" t="n">
-        <v>1.995277259473621</v>
+        <v>1.066452838541849</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.5787048580771025</v>
+        <v>-0.614837605020054</v>
       </c>
       <c r="L10" t="n">
-        <v>0.647255579601261</v>
+        <v>0.2552982519113249</v>
       </c>
     </row>
     <row r="11">
@@ -2528,34 +2708,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>1.114613012478668</v>
+        <v>-1.67327310007324</v>
       </c>
       <c r="D11" t="n">
-        <v>3.417880471897674</v>
+        <v>3.354036859623699</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05081474470590213</v>
+        <v>1.951352528813899e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>1.818702376866129</v>
+        <v>0.7319628926660907</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2955667391073608</v>
+        <v>0.09357428846837385</v>
       </c>
       <c r="H11" t="n">
-        <v>1.375512173193609</v>
+        <v>1.168241285178294</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1539568437306334</v>
+        <v>0.01586393021277169</v>
       </c>
       <c r="J11" t="n">
-        <v>1.787753056508144</v>
+        <v>2.207867271108574</v>
       </c>
       <c r="K11" t="n">
-        <v>0.007001350134935105</v>
+        <v>0.01732224272324505</v>
       </c>
       <c r="L11" t="n">
-        <v>-9.755485049041136</v>
+        <v>-5.941442450779901</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/mod_5.xlsx
+++ b/outputs/mod_5.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1.256002605430227</v>
+        <v>-0.7469020996833912</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05214868005938486</v>
+        <v>0.283580982454482</v>
       </c>
       <c r="F2" t="n">
-        <v>-24.0850315674326</v>
+        <v>-2.633822949686964</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.377985607976173</v>
+        <v>1.203829491338422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08092000137424585</v>
+        <v>0.05103186485525131</v>
       </c>
       <c r="F3" t="n">
-        <v>17.02898646285417</v>
+        <v>23.5897609219849</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1.330184312791855</v>
+        <v>-1.352970326874649</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1415332286330772</v>
+        <v>0.2656133332570888</v>
       </c>
       <c r="F4" t="n">
-        <v>-9.398388813981896</v>
+        <v>-5.093759075584888</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.554020266742301</v>
+        <v>7.038764401719507</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04486832852069864</v>
+        <v>0.9618237449338642</v>
       </c>
       <c r="F5" t="n">
-        <v>12.34769123362196</v>
+        <v>7.318143723103341</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-2.887225500501156</v>
+        <v>-2.388666766668733</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06065182903585454</v>
+        <v>0.1747301480916275</v>
       </c>
       <c r="F6" t="n">
-        <v>-47.6032717627421</v>
+        <v>-13.67060460233874</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.7669258370095633</v>
+        <v>-0.8183163621717768</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02486791315894683</v>
+        <v>0.1513896791841713</v>
       </c>
       <c r="F7" t="n">
-        <v>-30.83997567900639</v>
+        <v>-5.405364266452167</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1.992883402501437</v>
+        <v>3.883522473637139</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1638582665526812</v>
+        <v>1.247073704838728</v>
       </c>
       <c r="F8" t="n">
-        <v>-12.1622390156356</v>
+        <v>3.114108218759499</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-3.354341789852664</v>
+        <v>-2.477319629496133</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07299713814330834</v>
+        <v>0.1959994766199503</v>
       </c>
       <c r="F9" t="n">
-        <v>-45.95168900001811</v>
+        <v>-12.63941961589898</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -714,13 +714,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4541811319110509</v>
+        <v>1.070299522915602</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1124283312273085</v>
+        <v>0.09254993354007367</v>
       </c>
       <c r="F10" t="n">
-        <v>4.039739156074317</v>
+        <v>11.5645628470621</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -743,17 +743,17 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.4625705914496349</v>
+        <v>0.9378144506126446</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1002345459868449</v>
+        <v>0.3875209935992785</v>
       </c>
       <c r="F11" t="n">
-        <v>4.614881894215834</v>
+        <v>2.420035213840324</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -772,19 +772,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-31.98000011757975</v>
+        <v>-1.744360829289712</v>
       </c>
       <c r="E12" t="n">
-        <v>1.718243533258534</v>
+        <v>3.678995685814196</v>
       </c>
       <c r="F12" t="n">
-        <v>-18.6120299588335</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.4741404932916273</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -801,17 +797,17 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15.34450315892069</v>
+        <v>5.4454161053417</v>
       </c>
       <c r="E13" t="n">
-        <v>6.491025758861372</v>
+        <v>3.092171217979294</v>
       </c>
       <c r="F13" t="n">
-        <v>2.363956596224071</v>
+        <v>1.761033177490162</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
     </row>
@@ -830,17 +826,17 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-1.289174434142613</v>
+        <v>3.057739376437362</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09888812314188086</v>
+        <v>1.523440123884855</v>
       </c>
       <c r="F14" t="n">
-        <v>-13.03669635121859</v>
+        <v>2.007128031156197</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -859,19 +855,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2742774401499153</v>
+        <v>0.1359629793741999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0163461194623688</v>
+        <v>0.09031666149992776</v>
       </c>
       <c r="F15" t="n">
-        <v>16.77936104537489</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>1.505403068671982</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -888,13 +880,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-1.164048695885836</v>
+        <v>3.127901595604425</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06896284724650567</v>
+        <v>0.6745792692647351</v>
       </c>
       <c r="F16" t="n">
-        <v>-16.87935957349583</v>
+        <v>4.636818440942775</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -917,13 +909,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.007835960658197739</v>
+        <v>0.004316665034286315</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1331275021432921</v>
+        <v>0.1592865530597222</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05886056999524774</v>
+        <v>0.02709999652430073</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -942,19 +934,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.2464622188604969</v>
+        <v>-0.184997495547878</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01551786960022667</v>
+        <v>0.1139659872168197</v>
       </c>
       <c r="F18" t="n">
-        <v>-15.88247776337138</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-1.623269363656029</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -971,19 +959,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6787271772226678</v>
+        <v>0.4833810628580256</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3411073083818559</v>
+        <v>1.405306531174402</v>
       </c>
       <c r="F19" t="n">
-        <v>1.989776121896691</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.3439684169503349</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1000,15 +984,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.1970286703691416</v>
+        <v>-1.290896467422274</v>
       </c>
       <c r="E20" t="n">
-        <v>1.210398517813158</v>
+        <v>0.4071639376778383</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1627799997021772</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>-3.170458746382579</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1025,19 +1013,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-2.158085835927294</v>
+        <v>0.03548105801410525</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3193800480891849</v>
+        <v>2.932705554256246</v>
       </c>
       <c r="F21" t="n">
-        <v>-6.757109120744643</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.01209840447930801</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1054,19 +1038,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8134735911601353</v>
+        <v>0.07714581619837127</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3327626742268134</v>
+        <v>4.25887503544107</v>
       </c>
       <c r="F22" t="n">
-        <v>2.444605883307891</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.01811413003583977</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1083,13 +1063,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.09998750175374095</v>
+        <v>0.7200282311317051</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5574028284486078</v>
+        <v>0.4684738637703701</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1793810448218056</v>
+        <v>1.536965638460118</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1108,13 +1088,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.4214145769665449</v>
+        <v>0.05922464808998049</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4089503334367532</v>
+        <v>1.140839090633433</v>
       </c>
       <c r="F24" t="n">
-        <v>1.030478624201242</v>
+        <v>0.05191323524608273</v>
       </c>
       <c r="G24" t="inlineStr"/>
     </row>
@@ -1133,13 +1113,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.2291542650938112</v>
+        <v>0.06479516361637673</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2476064707879753</v>
+        <v>2.195669888712878</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.9254776919381694</v>
+        <v>0.02951043048386489</v>
       </c>
       <c r="G25" t="inlineStr"/>
     </row>
@@ -1158,13 +1138,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8612005972363057</v>
+        <v>-0.0613446061130643</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8138524964699316</v>
+        <v>3.873561506883075</v>
       </c>
       <c r="F26" t="n">
-        <v>1.058177742246593</v>
+        <v>-0.01583674507402523</v>
       </c>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -1183,19 +1163,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-1.333912187108046</v>
+        <v>-0.8732049118614911</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4168295256558789</v>
+        <v>1.729796568117959</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.2001384379121</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.5048020836412856</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1212,19 +1188,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8552190897744997</v>
+        <v>0.1812443256022521</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3464397919846248</v>
+        <v>5.239474309622807</v>
       </c>
       <c r="F28" t="n">
-        <v>2.468593705345646</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.03459208212346403</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1241,19 +1213,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-3.938185361703288</v>
+        <v>-0.2272219100119947</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2585021717135762</v>
+        <v>2.76816998811074</v>
       </c>
       <c r="F29" t="n">
-        <v>-15.2346316303557</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.08208379940101596</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1321,13 +1289,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1.256083736067413</v>
+        <v>-0.6981185410686865</v>
       </c>
       <c r="E2" t="n">
-        <v>9.515887459997087</v>
+        <v>8.408627852118325</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.131998590919422</v>
+        <v>-0.08302407400427581</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1346,13 +1314,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.378186804065976</v>
+        <v>1.203060208429862</v>
       </c>
       <c r="E3" t="n">
-        <v>12.79591529795574</v>
+        <v>5.453482401369762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1077052146700403</v>
+        <v>0.2206040324119661</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1371,13 +1339,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1.330338835808026</v>
+        <v>-1.426583873306314</v>
       </c>
       <c r="E4" t="n">
-        <v>7.953598274726128</v>
+        <v>11.4802950478136</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.167262513123827</v>
+        <v>-0.1242636942138525</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -1396,13 +1364,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5541437140927286</v>
+        <v>7.04459192260385</v>
       </c>
       <c r="E5" t="n">
-        <v>6.002145529409765</v>
+        <v>15.71839639560918</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09232427160879279</v>
+        <v>0.448174975697375</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -1421,13 +1389,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-2.887459737420199</v>
+        <v>-2.347761315890425</v>
       </c>
       <c r="E6" t="n">
-        <v>17.27621629435922</v>
+        <v>11.86926439492742</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.167134961048327</v>
+        <v>-0.1978017539902296</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -1446,13 +1414,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.7669242374294717</v>
+        <v>-0.7994272288405635</v>
       </c>
       <c r="E7" t="n">
-        <v>5.783622511862489</v>
+        <v>18.87614088010803</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1326027478205006</v>
+        <v>-0.04235120059328506</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -1471,13 +1439,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1.993123331358456</v>
+        <v>3.877575274809574</v>
       </c>
       <c r="E8" t="n">
-        <v>17.96110044691997</v>
+        <v>23.70852216663632</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.110968887304466</v>
+        <v>0.1635519602426451</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1496,13 +1464,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-3.354768527577233</v>
+        <v>-2.45569857594081</v>
       </c>
       <c r="E9" t="n">
-        <v>26.68774604712868</v>
+        <v>9.692957936894391</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1257044533342362</v>
+        <v>-0.2533487292453486</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1521,13 +1489,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4544219288006356</v>
+        <v>1.111751284037809</v>
       </c>
       <c r="E10" t="n">
-        <v>21.67285957347172</v>
+        <v>13.34940670138093</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02096732677384495</v>
+        <v>0.08328095089969836</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1546,13 +1514,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.4627005957083531</v>
+        <v>0.9803244195988587</v>
       </c>
       <c r="E11" t="n">
-        <v>8.897768000240744</v>
+        <v>7.27616647674735</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05200187234549541</v>
+        <v>0.1347308947275614</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1571,13 +1539,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-31.9797578777368</v>
+        <v>-1.739365155077139</v>
       </c>
       <c r="E12" t="n">
-        <v>26.051078010794</v>
+        <v>60.8426429826908</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.227579060816075</v>
+        <v>-0.02858792895588006</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1596,13 +1564,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15.34460971080146</v>
+        <v>5.446013522254511</v>
       </c>
       <c r="E13" t="n">
-        <v>29.1532483182496</v>
+        <v>9.242541748481605</v>
       </c>
       <c r="F13" t="n">
-        <v>0.526343052523444</v>
+        <v>0.5892333159489596</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1621,13 +1589,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-1.289192104225762</v>
+        <v>3.053301104996165</v>
       </c>
       <c r="E14" t="n">
-        <v>2.116485986287316</v>
+        <v>19.08809235613706</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6091191307565561</v>
+        <v>0.1599584205707434</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1646,13 +1614,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2742855839541027</v>
+        <v>0.1205374657103435</v>
       </c>
       <c r="E15" t="n">
-        <v>1.568761407768338</v>
+        <v>2.594950906589813</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1748421286983922</v>
+        <v>0.04645076922428151</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1671,13 +1639,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-1.164189872079398</v>
+        <v>3.132272915475712</v>
       </c>
       <c r="E16" t="n">
-        <v>12.43488392826413</v>
+        <v>24.44488205277943</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.09362289819474938</v>
+        <v>0.1281361435376435</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -1696,13 +1664,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.00782657877672949</v>
+        <v>-0.01180714360253949</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3925851911421475</v>
+        <v>0.4955589706415589</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01993600103447518</v>
+        <v>-0.02382591033969936</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1721,13 +1689,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.2465199048285475</v>
+        <v>-0.1454360048226128</v>
       </c>
       <c r="E18" t="n">
-        <v>4.980372873984676</v>
+        <v>2.430173648356239</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04949828277241275</v>
+        <v>-0.05984593114199275</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1746,13 +1714,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6789884806221828</v>
+        <v>0.4916655392134029</v>
       </c>
       <c r="E19" t="n">
-        <v>26.73929557749215</v>
+        <v>24.61690312821185</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02539290830061067</v>
+        <v>0.01997268042420562</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -1771,13 +1739,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.1964812943167395</v>
+        <v>-1.290788148485179</v>
       </c>
       <c r="E20" t="n">
-        <v>61.61293963478783</v>
+        <v>31.50776010490382</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.003188961531155421</v>
+        <v>-0.04096730913868685</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1796,13 +1764,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-2.158292721140427</v>
+        <v>0.03372149900319703</v>
       </c>
       <c r="E21" t="n">
-        <v>10.81330381489162</v>
+        <v>14.59228414748634</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1995960492821924</v>
+        <v>0.002310912990890866</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1821,13 +1789,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.81367573184816</v>
+        <v>0.07297081314099406</v>
       </c>
       <c r="E22" t="n">
-        <v>13.52578547907168</v>
+        <v>20.05503036369525</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06015737371460997</v>
+        <v>0.003638529177851057</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1846,13 +1814,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.1003358880564213</v>
+        <v>0.7348431929048251</v>
       </c>
       <c r="E23" t="n">
-        <v>35.42405699833078</v>
+        <v>14.75757513538733</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.002832422273404461</v>
+        <v>0.04979430469865865</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1871,13 +1839,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.421673817754826</v>
+        <v>0.05442243833118918</v>
       </c>
       <c r="E24" t="n">
-        <v>6.254847938753612</v>
+        <v>28.58728921283139</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06741551863191288</v>
+        <v>0.001903728539142553</v>
       </c>
       <c r="G24" t="inlineStr"/>
     </row>
@@ -1896,13 +1864,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.2289350144858836</v>
+        <v>0.06605598981569824</v>
       </c>
       <c r="E25" t="n">
-        <v>23.02829952868683</v>
+        <v>12.63628779763917</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.009941464162418702</v>
+        <v>0.005227483804859166</v>
       </c>
       <c r="G25" t="inlineStr"/>
     </row>
@@ -1921,13 +1889,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8616949061534213</v>
+        <v>-0.06268277172551162</v>
       </c>
       <c r="E26" t="n">
-        <v>27.33380308888112</v>
+        <v>21.91811800439712</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03152488160361201</v>
+        <v>-0.002859861038841769</v>
       </c>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -1946,13 +1914,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-1.334037551353267</v>
+        <v>-0.8584335446101604</v>
       </c>
       <c r="E27" t="n">
-        <v>15.51578708380737</v>
+        <v>58.03973923877434</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.085979366960088</v>
+        <v>-0.01479044454487609</v>
       </c>
       <c r="G27" t="inlineStr"/>
     </row>
@@ -1971,13 +1939,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8553657488889634</v>
+        <v>0.174327892778029</v>
       </c>
       <c r="E28" t="n">
-        <v>14.51491935601453</v>
+        <v>29.29923871342791</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05893010687203898</v>
+        <v>0.005949912026148793</v>
       </c>
       <c r="G28" t="inlineStr"/>
     </row>
@@ -1996,19 +1964,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-3.938200278970451</v>
+        <v>-0.2284435815491468</v>
       </c>
       <c r="E29" t="n">
-        <v>1.954883153477871</v>
+        <v>6.919676710928945</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.01454510054175</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>-0.03301362059131213</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2021,7 +1985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2085,6 +2049,36 @@
           <t>p_10</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>L_singleProd</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>L_multiProd</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>L_merger</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_before</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_merger</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Change_welfare</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2094,34 +2088,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.049846950726682</v>
+        <v>-0.4840715989629199</v>
       </c>
       <c r="D2" t="n">
-        <v>3.774993572492796</v>
+        <v>0.3198629312826992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0202569107767443</v>
+        <v>0.001345989104444983</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6799493688227483</v>
+        <v>0.05631624608531263</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1762776690308836</v>
+        <v>0.004447220727495683</v>
       </c>
       <c r="H2" t="n">
-        <v>0.70156470212018</v>
+        <v>0.02361169310599626</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04969077079473157</v>
+        <v>-1.829244322055618e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.422013023943115</v>
+        <v>0.07838579112499432</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007949829681155474</v>
+        <v>-0.0005338110612873924</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2753920103789649</v>
+        <v>0.0001152885104950339</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.065810103592961</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.17935515346133</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.6163180657332488</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9713.835920811342</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3104.569380103017</v>
+      </c>
+      <c r="R2" t="n">
+        <v>23770.61823976146</v>
       </c>
     </row>
     <row r="3">
@@ -2132,34 +2144,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.147332037878993</v>
+        <v>0.1036382638427382</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.390046809381213</v>
+        <v>-0.2630328442061906</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01653730990888255</v>
+        <v>-0.0006785233328244679</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5068082433717573</v>
+        <v>0.04726356491684942</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1180541723027462</v>
+        <v>0.005374720734347827</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5244298259334037</v>
+        <v>0.03063425386335395</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03984371313451068</v>
+        <v>-5.59186069142937e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9520290198224585</v>
+        <v>0.08219354427650533</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00667509863195177</v>
+        <v>0.0001335417013491251</v>
       </c>
       <c r="L3" t="n">
-        <v>0.181239842788351</v>
+        <v>0.0001313466967666679</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.801806588138868</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.254335307110728</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.6114139394731184</v>
+      </c>
+      <c r="P3" t="n">
+        <v>30343.98056260985</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9672.470064159395</v>
+      </c>
+      <c r="R3" t="n">
+        <v>23770.61823976146</v>
       </c>
     </row>
     <row r="4">
@@ -2170,34 +2200,52 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.227414189289281</v>
+        <v>0.1065480930231816</v>
       </c>
       <c r="D4" t="n">
-        <v>5.983009982533736</v>
+        <v>-0.1657725840626323</v>
       </c>
       <c r="E4" t="n">
-        <v>-22.61457979225014</v>
+        <v>0.09016119938392152</v>
       </c>
       <c r="F4" t="n">
-        <v>2.029576189264534</v>
+        <v>0.1346385947656774</v>
       </c>
       <c r="G4" t="n">
-        <v>2.05264373082984</v>
+        <v>-0.03213248311479659</v>
       </c>
       <c r="H4" t="n">
-        <v>2.086836503409346</v>
+        <v>-0.1492266555909547</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8289197668176659</v>
+        <v>-5.854829561003963e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>2.725782113455297</v>
+        <v>0.007024017337475118</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9292228031778216</v>
+        <v>5.59592665583754e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>1.722953366582266</v>
+        <v>0.0006950108116469317</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-11.09124553392233</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-6.894331336626195</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1813712529250916</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-136.9101421463751</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>34.7328389150122</v>
+      </c>
+      <c r="R4" t="n">
+        <v>23770.61823976146</v>
       </c>
     </row>
     <row r="5">
@@ -2208,34 +2256,52 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.977032434743451</v>
+        <v>0.1527721861369221</v>
       </c>
       <c r="D5" t="n">
-        <v>4.848506532986925</v>
+        <v>0.3957134892573202</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05366792593953403</v>
+        <v>0.004613983410733514</v>
       </c>
       <c r="F5" t="n">
-        <v>-10.5125434106068</v>
+        <v>-0.7880701609383627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.23123647444225</v>
+        <v>0.008346801085671101</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9619385515747937</v>
+        <v>0.060453521417819</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06337282886938304</v>
+        <v>-2.004234820029288e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.943550100473626</v>
+        <v>0.1635785771971169</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05334693585604521</v>
+        <v>0.00411728361227417</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4497419605031653</v>
+        <v>0.0003853048106865846</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.268922552288099</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.568732275356084</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.405374105873323</v>
+      </c>
+      <c r="P5" t="n">
+        <v>909.0459647153696</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1142.564773142411</v>
+      </c>
+      <c r="R5" t="n">
+        <v>23770.61823976146</v>
       </c>
     </row>
     <row r="6">
@@ -2246,34 +2312,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.418765595129778</v>
+        <v>0.05300952887759582</v>
       </c>
       <c r="D6" t="n">
-        <v>5.32972645475208</v>
+        <v>0.1977265308901335</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2561428832908106</v>
+        <v>-0.004838440563218798</v>
       </c>
       <c r="F6" t="n">
-        <v>1.09122825696518</v>
+        <v>0.03667538890597707</v>
       </c>
       <c r="G6" t="n">
-        <v>-14.35316686052198</v>
+        <v>-0.6266105781469582</v>
       </c>
       <c r="H6" t="n">
-        <v>1.046274327138459</v>
+        <v>0.04573250352527647</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2040737395516894</v>
+        <v>-9.13077944707752e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>2.103474046863742</v>
+        <v>0.2439433179335989</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07797009460707145</v>
+        <v>-0.0002648500925446237</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6911191930154043</v>
+        <v>0.0002263010848522854</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.595887517502891</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.953266107894878</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.122669461456558</v>
+      </c>
+      <c r="P6" t="n">
+        <v>257.5987563331619</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>237.6987854144438</v>
+      </c>
+      <c r="R6" t="n">
+        <v>23770.61823976146</v>
       </c>
     </row>
     <row r="7">
@@ -2284,34 +2368,52 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9988764960590298</v>
+        <v>0.03177294304640377</v>
       </c>
       <c r="D7" t="n">
-        <v>2.456736300102746</v>
+        <v>0.1272276206518265</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02702120560974522</v>
+        <v>-0.0025367202948986</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4710360808328571</v>
+        <v>0.0299875733116619</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1085658281314755</v>
+        <v>0.005162856233472162</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.88677521753678</v>
+        <v>-0.2905293865965727</v>
       </c>
       <c r="I7" t="n">
-        <v>0.150688273741671</v>
+        <v>-9.29235079844415e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7910836581017129</v>
+        <v>0.06330786738613896</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01205617722018538</v>
+        <v>0.0002285715671168236</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1970731131801328</v>
+        <v>0.0001834836648231557</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.441992604309573</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.638622993006575</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-1.958503325164979</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4250.640265146369</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2040.548334476851</v>
+      </c>
+      <c r="R7" t="n">
+        <v>23770.61823976146</v>
       </c>
     </row>
     <row r="8">
@@ -2322,34 +2424,52 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1.33302987783549</v>
+        <v>-1.752300032819971</v>
       </c>
       <c r="D8" t="n">
-        <v>3.51682736680341</v>
+        <v>-1.653243716233146</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2022315355692145</v>
+        <v>-0.007085114506298316</v>
       </c>
       <c r="F8" t="n">
-        <v>0.58469586777778</v>
+        <v>-0.7077416611405919</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3989833655577623</v>
+        <v>-0.07338027698573939</v>
       </c>
       <c r="H8" t="n">
-        <v>2.839223257378013</v>
+        <v>-0.6615033312778631</v>
       </c>
       <c r="I8" t="n">
-        <v>-12.54884563959603</v>
+        <v>5.856292255724856</v>
       </c>
       <c r="J8" t="n">
-        <v>1.513092178644087</v>
+        <v>-0.1504121458506353</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1486296767007158</v>
+        <v>0.004784479166135465</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4345815815693946</v>
+        <v>-0.02163309819897288</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1707565053677851</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1278888301309415</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5970383392809648</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.002098666682827733</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.02742304282716609</v>
+      </c>
+      <c r="R8" t="n">
+        <v>23770.61823976146</v>
       </c>
     </row>
     <row r="9">
@@ -2360,34 +2480,52 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1.904971877082815</v>
+        <v>0.1038579817558204</v>
       </c>
       <c r="D9" t="n">
-        <v>4.196258915449886</v>
+        <v>0.3361120052359615</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0332084316341835</v>
+        <v>0.0001175666033186488</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8954544839651348</v>
+        <v>0.07989477241294213</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2053646404278305</v>
+        <v>0.02711603589316802</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7443262642985295</v>
+        <v>0.06233470412337483</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07555900510244397</v>
+        <v>-2.080408821478303e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.214342199306262</v>
+        <v>-0.599142805899636</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01985839296114635</v>
+        <v>0.001247519721042223</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3088095874703223</v>
+        <v>0.001381783719747939</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.66905116802406</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.669051612093567</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.504362572480514</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1980.226373901458</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2367.632888621386</v>
+      </c>
+      <c r="R9" t="n">
+        <v>23770.61823976146</v>
       </c>
     </row>
     <row r="10">
@@ -2398,34 +2536,52 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.790545058067755</v>
+        <v>-0.1682921204391827</v>
       </c>
       <c r="D10" t="n">
-        <v>7.709318669165759</v>
+        <v>0.129938216823312</v>
       </c>
       <c r="E10" t="n">
-        <v>2.966356249566807</v>
+        <v>0.0002228661396731715</v>
       </c>
       <c r="F10" t="n">
-        <v>6.440261104293723</v>
+        <v>0.4784938961329161</v>
       </c>
       <c r="G10" t="n">
-        <v>1.994632048536561</v>
+        <v>-0.007005047483916156</v>
       </c>
       <c r="H10" t="n">
-        <v>2.972328285346309</v>
+        <v>0.05355106412090219</v>
       </c>
       <c r="I10" t="n">
-        <v>1.944789486407896</v>
+        <v>1.574614071272074e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>5.203437239441414</v>
+        <v>0.2968390962052712</v>
       </c>
       <c r="K10" t="n">
-        <v>-36.78852850269192</v>
+        <v>-0.8643576025236392</v>
       </c>
       <c r="L10" t="n">
-        <v>2.285053862834837</v>
+        <v>-0.0001914530923562481</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.156928564150219</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.156868512061441</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.096309343876842</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.768400336298018</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8.903727535951148</v>
+      </c>
+      <c r="R10" t="n">
+        <v>23770.61823976146</v>
       </c>
     </row>
     <row r="11">
@@ -2436,34 +2592,52 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>2.544750127554291</v>
+        <v>0.2272346672635885</v>
       </c>
       <c r="D11" t="n">
-        <v>5.510291584849281</v>
+        <v>0.7990086841618219</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1447903322438623</v>
+        <v>0.01730517455079389</v>
       </c>
       <c r="F11" t="n">
-        <v>1.429288823684514</v>
+        <v>0.2799512406963173</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4654256123700692</v>
+        <v>0.03742053024619024</v>
       </c>
       <c r="H11" t="n">
-        <v>1.279019370040286</v>
+        <v>0.2687544425897337</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1496928215357411</v>
+        <v>-0.0004451132564724833</v>
       </c>
       <c r="J11" t="n">
-        <v>2.13009802160121</v>
+        <v>2.055540788938832</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06015324146091143</v>
+        <v>-0.001196946480904773</v>
       </c>
       <c r="L11" t="n">
-        <v>-13.57860426438191</v>
+        <v>-3.683316366413058</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.271494463282782</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.2711185222675034</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.7300361447075822</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2162311384990382</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.57200781862141</v>
+      </c>
+      <c r="R11" t="n">
+        <v>23770.61823976146</v>
       </c>
     </row>
   </sheetData>
